--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaHhDvCn.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaHhDvCn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F27305-F8B8-4ACE-A577-0CAD3504E6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE1F4EF-7A8D-4C7A-8C16-F48CD85AC49A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4170" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="3435" yWindow="4755" windowWidth="21420" windowHeight="10725" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,39 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Tên đường giới hạn khu vực</t>
+    <t>Tên sản phẩm dịch vụ</t>
   </si>
   <si>
-    <t>Loại đất</t>
+    <t>Đơn giá</t>
   </si>
   <si>
-    <t>Vị trí</t>
-  </si>
-  <si>
-    <t>Giá đất tại bảng</t>
-  </si>
-  <si>
-    <t>Giá đất cụ thể</t>
-  </si>
-  <si>
-    <t>Hệ số điều chỉnh</t>
-  </si>
-  <si>
-    <t>Hoàng Hoa Thám</t>
-  </si>
-  <si>
-    <t>Thổ cư</t>
-  </si>
-  <si>
-    <t>Lê Văn Lương</t>
-  </si>
-  <si>
-    <t>Trong Ngõ</t>
-  </si>
-  <si>
-    <t>Mặt Đường</t>
+    <t>Thực phẩm bổ sung</t>
   </si>
 </sst>
 </file>
@@ -410,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,64 +401,20 @@
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="B2">
         <v>5000</v>
-      </c>
-      <c r="E2">
-        <v>6000</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>6000</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
